--- a/livro fiscal/livro_mensal_prestado.xlsx
+++ b/livro fiscal/livro_mensal_prestado.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno.martins\Desktop\ResolveCaptcha\livro fiscal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno.martins\Desktop\Automações\ResolveCaptcha\livro fiscal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CEFA2A-3385-467B-B117-2695D8964689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AEA7069-45F4-4B46-81FA-BD37E46252B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8295" yWindow="465" windowWidth="10275" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="48">
   <si>
     <t>Prefeitura Municipal de Itapira</t>
   </si>
@@ -57,27 +57,15 @@
     <t>Encerramento</t>
   </si>
   <si>
-    <t>18879337000186</t>
-  </si>
-  <si>
-    <t>Mês Encerrado</t>
-  </si>
-  <si>
     <t>Razão Social</t>
   </si>
   <si>
-    <t>TRIO ARENA UNIVERSITARIA LTDA.</t>
-  </si>
-  <si>
     <t>Endereço:</t>
   </si>
   <si>
     <t>Número:</t>
   </si>
   <si>
-    <t>ALBANO PEGORARI</t>
-  </si>
-  <si>
     <t>Complemento:</t>
   </si>
   <si>
@@ -90,15 +78,6 @@
     <t>Estado:</t>
   </si>
   <si>
-    <t>VILA PENHA DO RIO DO PEIXE</t>
-  </si>
-  <si>
-    <t>ITAPIRA</t>
-  </si>
-  <si>
-    <t>SP</t>
-  </si>
-  <si>
     <t>LANÇAMENTOS VÁLIDOS</t>
   </si>
   <si>
@@ -153,15 +132,6 @@
     <t>Data Escrituração</t>
   </si>
   <si>
-    <t>Eletrônica</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Norm.</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -171,9 +141,6 @@
     <t>Evento</t>
   </si>
   <si>
-    <t>Sem Lançamentos no Período</t>
-  </si>
-  <si>
     <t>HISTORICO DE ENCERRAMENTOS DO LIVRO</t>
   </si>
   <si>
@@ -201,19 +168,7 @@
     <t>data</t>
   </si>
   <si>
-    <t>Não Trib.</t>
-  </si>
-  <si>
-    <t>44.766.996/0001-16</t>
-  </si>
-  <si>
-    <t>71.262.273/0001-52</t>
-  </si>
-  <si>
-    <t>CERAMICA CLUBE</t>
-  </si>
-  <si>
-    <t>SERRA NEGRA ESPORTE CLUBE</t>
+    <t>Valor</t>
   </si>
 </sst>
 </file>
@@ -325,7 +280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -345,6 +300,33 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -354,30 +336,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -387,15 +345,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -403,18 +352,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -700,7 +637,7 @@
   <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="J45" sqref="J45"/>
+      <selection activeCell="O38" sqref="O38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -709,509 +646,511 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="23"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="9"/>
     </row>
     <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="23"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="23"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="9"/>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="23"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="9"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="16">
-        <v>45688.617129629631</v>
-      </c>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="17"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="12"/>
     </row>
     <row r="9" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="21" t="s">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="21" t="s">
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J10" s="22"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="21" t="s">
+      <c r="J10" s="8"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="M10" s="22"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="21" t="s">
+      <c r="M10" s="8"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="23"/>
-    </row>
-    <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
-        <v>44032</v>
-      </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="27">
-        <v>45627</v>
-      </c>
-      <c r="J11" s="28"/>
-      <c r="K11" s="29"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="9"/>
+    </row>
+    <row r="11" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J11" s="11"/>
+      <c r="K11" s="12"/>
       <c r="L11" s="10" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="M11" s="11"/>
       <c r="N11" s="12"/>
-      <c r="O11" s="16">
-        <v>45659.656828703701</v>
-      </c>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="17"/>
+      <c r="O11" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="12"/>
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="9"/>
+    </row>
+    <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="15"/>
+    </row>
+    <row r="14" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="23"/>
-    </row>
-    <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="9"/>
+    </row>
+    <row r="15" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="15"/>
+    </row>
+    <row r="16" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="12"/>
-    </row>
-    <row r="14" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="21" t="s">
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="21" t="s">
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="23"/>
-    </row>
-    <row r="15" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="10">
-        <v>405</v>
-      </c>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="12"/>
-    </row>
-    <row r="16" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="23"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="9"/>
     </row>
     <row r="17" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="12"/>
+      <c r="A17" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="15"/>
     </row>
     <row r="19" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="20"/>
+      <c r="A20" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="21"/>
     </row>
     <row r="21" spans="1:18" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="O21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="P21" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="Q21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="R21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L21" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P21" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q21" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="R21" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
-        <v>8</v>
-      </c>
-      <c r="B22" s="3">
-        <v>99</v>
+    </row>
+    <row r="22" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="C22" s="3"/>
-      <c r="D22" s="3">
-        <v>1</v>
+      <c r="D22" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F22" t="s">
-        <v>58</v>
-      </c>
-      <c r="G22" s="3">
-        <v>1212</v>
-      </c>
-      <c r="H22" s="3">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="I22">
-        <v>5500</v>
-      </c>
-      <c r="J22">
-        <v>5500</v>
+        <v>47</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>47</v>
+      </c>
+      <c r="J22" t="s">
+        <v>47</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="N22" s="4">
-        <v>261.3</v>
+        <v>47</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="O22" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="P22" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="R22" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
-        <v>20</v>
-      </c>
-      <c r="B23" s="3">
-        <v>100</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="3">
-        <v>1</v>
+      <c r="D23" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F23" t="s">
-        <v>58</v>
-      </c>
-      <c r="G23" s="3">
-        <v>1212</v>
-      </c>
-      <c r="H23" s="3">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="I23">
-        <v>12000</v>
-      </c>
-      <c r="J23">
-        <v>12000</v>
+        <v>47</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>47</v>
+      </c>
+      <c r="J23" t="s">
+        <v>47</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="N23" s="4">
-        <v>299.49</v>
+        <v>47</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="O23" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="P23" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="Q23" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="R23" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1236,7 +1175,7 @@
     </row>
     <row r="25" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B25" s="5">
         <v>2</v>
@@ -1246,23 +1185,23 @@
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
-      <c r="H25">
-        <v>17500</v>
-      </c>
-      <c r="I25">
-        <v>17500</v>
-      </c>
-      <c r="J25" s="6">
-        <v>0</v>
-      </c>
-      <c r="K25" s="6">
-        <v>0</v>
-      </c>
-      <c r="L25" s="6">
-        <v>0</v>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>47</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
@@ -1272,213 +1211,199 @@
     </row>
     <row r="27" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="22"/>
-      <c r="O28" s="22"/>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="22"/>
-      <c r="R28" s="23"/>
+      <c r="A28" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="9"/>
     </row>
     <row r="29" spans="1:18" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N29" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="O29" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="P29" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K29" s="1" t="s">
+      <c r="Q29" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R29" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L29" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P29" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q29" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="R29" s="1" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="30" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="25"/>
-      <c r="N30" s="25"/>
-      <c r="O30" s="25"/>
-      <c r="P30" s="25"/>
-      <c r="Q30" s="25"/>
-      <c r="R30" s="26"/>
+      <c r="A30" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="23"/>
+      <c r="Q30" s="23"/>
+      <c r="R30" s="24"/>
     </row>
     <row r="34" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="22"/>
-      <c r="L35" s="22"/>
-      <c r="M35" s="22"/>
-      <c r="N35" s="22"/>
-      <c r="O35" s="22"/>
-      <c r="P35" s="22"/>
-      <c r="Q35" s="23"/>
+      <c r="A35" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="9"/>
     </row>
     <row r="36" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C36" s="11"/>
-      <c r="D36" s="12"/>
+        <v>39</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="14"/>
+      <c r="D36" s="15"/>
       <c r="E36" s="3" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G36" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="12"/>
+        <v>42</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="15"/>
       <c r="O36" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="P36" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q36" s="12"/>
+        <v>45</v>
+      </c>
+      <c r="P36" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q36" s="15"/>
     </row>
     <row r="37" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="3"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="13"/>
+      <c r="A37" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="17"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="13" t="s">
+        <v>47</v>
+      </c>
       <c r="L37" s="14"/>
       <c r="M37" s="14"/>
       <c r="N37" s="15"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="16"/>
-      <c r="Q37" s="17"/>
+      <c r="O37" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P37" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q37" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="A2:R2"/>
-    <mergeCell ref="A3:R3"/>
-    <mergeCell ref="A6:Q6"/>
-    <mergeCell ref="A7:O7"/>
-    <mergeCell ref="P7:R7"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="O11:R11"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="O10:R10"/>
-    <mergeCell ref="A12:R12"/>
-    <mergeCell ref="A13:R13"/>
-    <mergeCell ref="A14:I14"/>
-    <mergeCell ref="J14:R14"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="J15:R15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="I16:M16"/>
-    <mergeCell ref="N16:R16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="I17:M17"/>
-    <mergeCell ref="N17:R17"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="G37:J37"/>
     <mergeCell ref="K37:N37"/>
@@ -1491,6 +1416,36 @@
     <mergeCell ref="G36:J36"/>
     <mergeCell ref="K36:N36"/>
     <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="I16:M16"/>
+    <mergeCell ref="N16:R16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="I17:M17"/>
+    <mergeCell ref="N17:R17"/>
+    <mergeCell ref="A12:R12"/>
+    <mergeCell ref="A13:R13"/>
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="J14:R14"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="J15:R15"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="O10:R10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="O11:R11"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="A3:R3"/>
+    <mergeCell ref="A6:Q6"/>
+    <mergeCell ref="A7:O7"/>
+    <mergeCell ref="P7:R7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
